--- a/results.xlsx
+++ b/results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>nMSE</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>just predicting mean…</t>
+  </si>
+  <si>
+    <t>SVM</t>
   </si>
 </sst>
 </file>
@@ -86,9 +89,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -381,7 +387,7 @@
     <col min="3" max="3" width="22.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -394,40 +400,64 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2">
+        <v>0.14116999999999999</v>
+      </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>0.14780499999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2">
         <v>1.5</v>
       </c>
       <c r="B11">
         <v>0.141114216103849</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2">
         <v>2</v>
       </c>
       <c r="B12">

--- a/results.xlsx
+++ b/results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>nMSE</t>
   </si>
@@ -30,9 +30,6 @@
     <t>KRR</t>
   </si>
   <si>
-    <t>XGR</t>
-  </si>
-  <si>
     <t>Base</t>
   </si>
   <si>
@@ -46,6 +43,21 @@
   </si>
   <si>
     <t>SVM</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>1000 hidden layers, end early, constant, 0.0001 alpha, random state=1998</t>
+  </si>
+  <si>
+    <t>adaptive</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
   </si>
 </sst>
 </file>
@@ -375,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -387,7 +399,7 @@
     <col min="3" max="3" width="22.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -395,60 +407,107 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>0.14116999999999999</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <v>0.14780499999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>0.14122048600385401</v>
+      </c>
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="M5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="M6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="M7">
+        <v>1E-3</v>
+      </c>
+      <c r="N7">
+        <v>0.14130543773982801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="M8">
+        <v>1E-4</v>
+      </c>
+      <c r="N8">
+        <v>0.138902</v>
+      </c>
+      <c r="O8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <v>1.5</v>
       </c>
@@ -456,7 +515,7 @@
         <v>0.141114216103849</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
         <v>2</v>
       </c>
